--- a/data/mobile music ex1.1.xlsx
+++ b/data/mobile music ex1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>theme</t>
   </si>
@@ -158,9 +158,6 @@
     <t>disable</t>
   </si>
   <si>
-    <t>enableatstart</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -270,6 +267,21 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>enabledatstart</t>
+  </si>
+  <si>
+    <t>outfile</t>
+  </si>
+  <si>
+    <t>daoplayer-test1.json</t>
+  </si>
+  <si>
+    <t>contextfile</t>
+  </si>
+  <si>
+    <t>context-test1.json</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,26 +648,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,23 +675,39 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,19 +743,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
@@ -736,7 +764,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>43</v>
@@ -759,30 +787,36 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
       </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -790,16 +824,22 @@
       <c r="I3" t="s">
         <v>42</v>
       </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -811,13 +851,13 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
@@ -831,25 +871,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -860,25 +900,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -889,13 +929,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -907,10 +947,10 @@
         <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -919,12 +959,12 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -940,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -954,13 +994,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -977,13 +1017,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -992,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
@@ -1212,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1223,10 +1263,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>1</v>

--- a/data/mobile music ex1.1.xlsx
+++ b/data/mobile music ex1.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="oneshots" sheetId="3" r:id="rId4"/>
     <sheet name="transitions" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>theme</t>
   </si>
@@ -83,9 +88,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>route</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -146,9 +148,6 @@
     <t>priority</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>neighbours</t>
   </si>
   <si>
@@ -282,6 +281,9 @@
   </si>
   <si>
     <t>context-test1.json</t>
+  </si>
+  <si>
+    <t>routes</t>
   </si>
 </sst>
 </file>
@@ -390,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,79 +642,84 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -721,59 +728,59 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
@@ -785,21 +792,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -808,38 +812,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -847,17 +845,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
@@ -869,27 +864,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -898,27 +893,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -927,15 +922,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -943,14 +938,11 @@
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
@@ -959,83 +951,74 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
         <v>23</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1043,7 +1026,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1055,18 +1043,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -1087,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1131,9 +1119,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -1145,7 +1133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1165,15 +1153,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1196,9 +1184,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -1206,6 +1194,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1217,9 +1210,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1247,12 +1240,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1261,12 +1254,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1277,6 +1270,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1288,52 +1286,52 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -1347,5 +1345,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>